--- a/nodes_source_analyses/energy/energy/energy_production_methanol_to_jet.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_production_methanol_to_jet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65398A4F-6C8B-B343-9622-BDC815A026E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34700983-84EB-A948-B9AA-716DE3CFE296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10380" yWindow="-28300" windowWidth="25600" windowHeight="13660" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6260" yWindow="-28300" windowWidth="25600" windowHeight="27340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="154">
   <si>
     <t>Source</t>
   </si>
@@ -367,9 +367,6 @@
     <t>Quintel assumption</t>
   </si>
   <si>
-    <t>gasoline</t>
-  </si>
-  <si>
     <t>hydrogen</t>
   </si>
   <si>
@@ -427,36 +424,15 @@
     <t>heat</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
     <t>Output products</t>
   </si>
   <si>
-    <t>MJ / kg kerosene</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
-    <t>MJ/MJ kerosene</t>
-  </si>
-  <si>
-    <t>corrected kg/kg kerosene</t>
-  </si>
-  <si>
     <t>correction light gases</t>
   </si>
   <si>
-    <t>MJ in / MJ out</t>
-  </si>
-  <si>
-    <t>kg / kg kerosene</t>
-  </si>
-  <si>
-    <t>MJ / MJ kerosene</t>
-  </si>
-  <si>
     <t>Feedstock in- and output</t>
   </si>
   <si>
@@ -472,21 +448,9 @@
     <t>Conversions are done to:</t>
   </si>
   <si>
-    <t>- allocate light gases output to proportionally increased kerosene and gasoline output (light gases difficult to model but have energy purpose)</t>
-  </si>
-  <si>
     <t>- conversions from kg to MJs</t>
   </si>
   <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Simplified calculation based only on Concawe &amp; Armaco, to check if calculation results above make sense</t>
-  </si>
-  <si>
-    <t>final correction MJ in / MJ out</t>
-  </si>
-  <si>
     <t>loss</t>
   </si>
   <si>
@@ -535,9 +499,6 @@
     <t>ouptut.kerosene</t>
   </si>
   <si>
-    <t>output.gasoline</t>
-  </si>
-  <si>
     <t>Product yields</t>
   </si>
   <si>
@@ -572,6 +533,61 @@
   </si>
   <si>
     <t>Quintel</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>According to an expert from Kalavasta (maintainer of the CTM), output of gasoline can be considered a product with carbon range similar to gasoline</t>
+  </si>
+  <si>
+    <t>naphtha</t>
+  </si>
+  <si>
+    <t>- allocate light gases output to proportionally increased kerosene and naphtha output (light gases difficult to model but have energy purpose)</t>
+  </si>
+  <si>
+    <t>output.naphtha</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note that the reported gasoline output from Concawe &amp; Aramco is assumed to be </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>naphtha</t>
+    </r>
+  </si>
+  <si>
+    <t>Output of naphtha</t>
+  </si>
+  <si>
+    <t>Expert judgement from Kalavasta</t>
+  </si>
+  <si>
+    <t>Concerning assumption of naphtha output instead of gasoline</t>
+  </si>
+  <si>
+    <t>7-11-2025</t>
+  </si>
+  <si>
+    <t>Concawe &amp; Aramco (2022), Wang et al. (2015), expert from Kalavasta</t>
+  </si>
+  <si>
+    <t>Considering the importance of naphtha in the future compared to decreased importance of gasoline, and considering naphta has a similar carbon range as gasoline, the output is considered to be naphtha</t>
+  </si>
+  <si>
+    <t>conversion to MJ</t>
+  </si>
+  <si>
+    <t>correction heat and electricity</t>
+  </si>
+  <si>
+    <t>normalise on input</t>
   </si>
 </sst>
 </file>
@@ -585,12 +601,19 @@
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -793,8 +816,13 @@
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +893,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1087,494 +1121,482 @@
   </borders>
   <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1583,82 +1605,107 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="356" applyFill="1"/>
+    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="356" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="18" fillId="2" borderId="0" xfId="357" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="357" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="358">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2039,13 +2086,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1351561</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>38382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>793042</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>34173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2083,14 +2130,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1181612</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>41077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>172897</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>91877</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2125,14 +2172,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>852261</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>241301</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2269</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>75690</xdr:rowOff>
     </xdr:to>
@@ -2157,8 +2204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13411200" y="952500"/>
-          <a:ext cx="7010401" cy="7047990"/>
+          <a:off x="15287172" y="956129"/>
+          <a:ext cx="7020379" cy="7079740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2532,29 +2579,29 @@
         <v>7</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="115"/>
+        <v>92</v>
+      </c>
+      <c r="D4" s="106"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="116"/>
+      <c r="D5" s="107"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="117"/>
+      <c r="C6" s="105" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="108"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
@@ -2572,31 +2619,31 @@
         <v>16</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="115"/>
+      <c r="D9" s="106"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="33"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="116"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="107"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="116"/>
+      <c r="D11" s="107"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="33"/>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="116"/>
+      <c r="D12" s="107"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="1"/>
@@ -2604,91 +2651,91 @@
       <c r="C13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="116"/>
+      <c r="D13" s="107"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="33"/>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="107"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="33"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="116"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="107"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="107"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="33"/>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="107"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="33"/>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="107"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="33"/>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="116"/>
+      <c r="D19" s="107"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="35"/>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="107"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="35"/>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="116"/>
+      <c r="D21" s="107"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="116"/>
+      <c r="D22" s="107"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="35"/>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="116"/>
+      <c r="D23" s="107"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="117"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2703,8 +2750,8 @@
   </sheetPr>
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -2722,30 +2769,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
     </row>
     <row r="5" spans="2:10" ht="31" customHeight="1">
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
     </row>
     <row r="7" spans="2:10" ht="17" thickBot="1"/>
     <row r="8" spans="2:10">
@@ -2803,93 +2850,93 @@
       </c>
       <c r="E12" s="47">
         <f>ROUND(Notes!C2,3)</f>
-        <v>1660.192</v>
+        <v>1803.395</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="59"/>
       <c r="H12" s="60"/>
       <c r="I12" s="103" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J12" s="61"/>
     </row>
     <row r="13" spans="2:10" ht="20" thickBot="1">
       <c r="B13" s="58"/>
       <c r="C13" s="101" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="62">
         <f>ROUND(Notes!C6,5)</f>
-        <v>0.95965</v>
+        <v>0.96009</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
       <c r="I13" s="103" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="2:10" ht="20" thickBot="1">
       <c r="B14" s="58"/>
       <c r="C14" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="46" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="62">
         <f>ROUND(Notes!C7,5)</f>
-        <v>4.0349999999999997E-2</v>
+        <v>3.9910000000000001E-2</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="59"/>
       <c r="H14" s="60"/>
       <c r="I14" s="103" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J14" s="61"/>
     </row>
     <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="63"/>
       <c r="C15" s="102" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="62">
         <f>ROUND(Notes!C8,5)</f>
-        <v>0.82399999999999995</v>
+        <v>0.75856999999999997</v>
       </c>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="50"/>
       <c r="I15" s="103" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="J15" s="64"/>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="63"/>
-      <c r="C16" s="102" t="s">
-        <v>139</v>
+      <c r="C16" s="123" t="s">
+        <v>143</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E16" s="62">
         <f>ROUND(Notes!C9,5)</f>
-        <v>0.15090999999999999</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
-      <c r="I16" s="103" t="s">
-        <v>150</v>
+      <c r="I16" s="124" t="s">
+        <v>149</v>
       </c>
       <c r="J16" s="64"/>
     </row>
@@ -2909,7 +2956,7 @@
       <c r="G17" s="45"/>
       <c r="H17" s="66"/>
       <c r="I17" s="103" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J17" s="67"/>
     </row>
@@ -2928,7 +2975,7 @@
       <c r="G18" s="45"/>
       <c r="H18" s="66"/>
       <c r="I18" s="94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" s="67"/>
     </row>
@@ -2974,7 +3021,7 @@
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="103" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J21" s="64"/>
     </row>
@@ -2993,7 +3040,7 @@
       <c r="G22" s="50"/>
       <c r="H22" s="50"/>
       <c r="I22" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J22" s="64"/>
     </row>
@@ -3015,7 +3062,7 @@
       </c>
       <c r="H23" s="50"/>
       <c r="I23" s="103" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J23" s="64"/>
     </row>
@@ -3037,7 +3084,7 @@
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="103" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J24" s="70"/>
     </row>
@@ -3056,7 +3103,7 @@
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
       <c r="I25" s="68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="70"/>
     </row>
@@ -3077,7 +3124,7 @@
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J26" s="70"/>
     </row>
@@ -3098,7 +3145,7 @@
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" s="70"/>
     </row>
@@ -3184,7 +3231,7 @@
       </c>
       <c r="H32" s="50"/>
       <c r="I32" s="103" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="J32" s="64"/>
     </row>
@@ -3205,7 +3252,7 @@
       </c>
       <c r="H33" s="50"/>
       <c r="I33" s="95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J33" s="64"/>
     </row>
@@ -3256,7 +3303,7 @@
   <dimension ref="B1:J34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
@@ -3316,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>13</v>
@@ -3342,28 +3389,28 @@
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
       <c r="C7" s="100" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D7" s="100" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F7" s="25">
         <v>2022</v>
       </c>
       <c r="G7" s="100" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="H7" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="39"/>
       <c r="C8" s="100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -3372,22 +3419,22 @@
     <row r="10" spans="2:10">
       <c r="B10" s="39"/>
       <c r="C10" s="100" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F10" s="25">
         <v>2016</v>
       </c>
       <c r="G10" s="100" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H10" s="91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="92" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -3395,6 +3442,18 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="39"/>
+      <c r="C12" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="122" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="39"/>
@@ -3463,7 +3522,7 @@
       <c r="B34" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{CA4435BF-7BC0-5946-B941-E72619E47EA7}"/>
     <hyperlink ref="J10" r:id="rId2" xr:uid="{44305025-BB8A-4D46-A44D-6B29F2B5A0C5}"/>
@@ -3478,10 +3537,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3491,7 +3550,7 @@
     <col min="3" max="3" width="14.5" style="29" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="29" customWidth="1"/>
     <col min="5" max="5" width="25" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="10.6640625" style="29"/>
     <col min="11" max="11" width="16.1640625" style="29" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" style="29"/>
@@ -3511,7 +3570,7 @@
       </c>
       <c r="C2" s="41">
         <f>C18</f>
-        <v>1660.1920877257439</v>
+        <v>1803.3950066416073</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>37</v>
@@ -3528,7 +3587,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:25">
@@ -3542,8 +3601,8 @@
       <c r="D4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>134</v>
+      <c r="K4" s="29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:25">
@@ -3563,11 +3622,11 @@
     </row>
     <row r="6" spans="2:25">
       <c r="B6" s="29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C6" s="37">
-        <f>I52</f>
-        <v>0.95965000590366456</v>
+        <f>G51</f>
+        <v>0.96009316447272652</v>
       </c>
       <c r="M6" s="75"/>
       <c r="N6" s="79"/>
@@ -3585,11 +3644,11 @@
     </row>
     <row r="7" spans="2:25">
       <c r="B7" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="37">
-        <f>I53</f>
-        <v>4.0349994096335384E-2</v>
+        <f>G52</f>
+        <v>3.990683552727349E-2</v>
       </c>
       <c r="M7" s="81"/>
       <c r="N7" s="82"/>
@@ -3607,11 +3666,11 @@
     </row>
     <row r="8" spans="2:25">
       <c r="B8" s="29" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C8" s="37">
-        <f>I57</f>
-        <v>0.82400103585241713</v>
+        <f>G57</f>
+        <v>0.75856925130760644</v>
       </c>
       <c r="M8" s="85"/>
       <c r="N8" s="85"/>
@@ -3629,11 +3688,11 @@
     </row>
     <row r="9" spans="2:25">
       <c r="B9" s="29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C9" s="37">
-        <f>I58</f>
-        <v>0.15090655716936563</v>
+        <f>G58</f>
+        <v>0.14149611561004447</v>
       </c>
       <c r="M9" s="85"/>
       <c r="N9" s="86"/>
@@ -3758,35 +3817,35 @@
     </row>
     <row r="16" spans="2:25">
       <c r="B16" s="30" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="29" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C17" s="29">
         <v>1368</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C18" s="97">
-        <f>C17/I57</f>
-        <v>1660.1920877257439</v>
+        <f>C17/G57</f>
+        <v>1803.3950066416073</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="29" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C19" s="29">
         <v>30</v>
@@ -3827,7 +3886,7 @@
         <v>1350</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -3854,596 +3913,416 @@
         <v>48</v>
       </c>
     </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="30" t="s">
-        <v>113</v>
+      <c r="B33" s="29" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="29" t="s">
-        <v>114</v>
+      <c r="B34" s="89" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:12">
       <c r="B35" s="29" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="29" t="s">
-        <v>115</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="89" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>103</v>
-      </c>
+      <c r="B39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="96">
+        <v>0.82</v>
+      </c>
+      <c r="E39" s="98"/>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="29" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="C40" s="96">
-        <v>0.82</v>
-      </c>
-      <c r="D40" s="29">
-        <v>1</v>
-      </c>
-      <c r="E40" s="98">
-        <f>D40/SUM($D$40:$D$42)</f>
-        <v>0.82000000000000006</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="98"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C41" s="96">
-        <v>0.15</v>
-      </c>
-      <c r="D41" s="90">
-        <f>D$40/$C$40*C41</f>
-        <v>0.18292682926829268</v>
-      </c>
-      <c r="E41" s="98">
-        <f>D41/SUM($D$40:$D$42)</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12">
-      <c r="B42" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="96">
         <v>0.03</v>
       </c>
-      <c r="D42" s="90">
-        <f>D$40/$C$40*C42</f>
-        <v>3.6585365853658534E-2</v>
-      </c>
-      <c r="E42" s="98">
-        <f>D42/SUM($D$40:$D$42)</f>
-        <v>0.03</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>135</v>
+      <c r="D41" s="90"/>
+      <c r="E41" s="98"/>
+      <c r="L41" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="89" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="89" t="s">
-        <v>132</v>
+      <c r="B45" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="29" t="s">
-        <v>117</v>
+      <c r="B46" s="99" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="2:12">
       <c r="B47" s="99" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:12">
       <c r="B48" s="99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="B49" s="99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" s="89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="D50" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" s="135" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="29">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D51" s="29">
+        <f>C51</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E51" s="90">
+        <f>D51*C67</f>
+        <v>46.167999999999992</v>
+      </c>
+      <c r="F51" s="90">
+        <f>E51</f>
+        <v>46.167999999999992</v>
+      </c>
+      <c r="G51" s="90">
+        <f>F51/$F$54</f>
+        <v>0.96009316447272652</v>
+      </c>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="29">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="29">
+        <f t="shared" ref="D52" si="0">C52</f>
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="90">
+        <f>D52*C65</f>
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="F52" s="90">
+        <f>E52+E53</f>
+        <v>1.919</v>
+      </c>
+      <c r="G52" s="90">
+        <f>F52/$F$54</f>
+        <v>3.990683552727349E-2</v>
+      </c>
+      <c r="H52" s="90"/>
+      <c r="I52" s="90"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" s="135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
+      <c r="E53" s="136">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F53" s="137">
+        <v>0</v>
+      </c>
+      <c r="G53" s="138"/>
+      <c r="H53" s="90"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="29">
+        <f>SUM(C51:C52)</f>
+        <v>2.3299999999999996</v>
+      </c>
+      <c r="D54" s="29">
+        <f>SUM(D51:D52)</f>
+        <v>2.3299999999999996</v>
+      </c>
+      <c r="E54" s="90">
+        <f>SUM(E51:E53)</f>
+        <v>48.086999999999989</v>
+      </c>
+      <c r="F54" s="90">
+        <f>SUM(F51:F53)</f>
+        <v>48.086999999999989</v>
+      </c>
+      <c r="G54" s="90">
+        <f>SUM(G51:G53)</f>
+        <v>1</v>
+      </c>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="H55" s="90"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I51" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52" s="29" t="s">
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="90"/>
+      <c r="I56" s="90"/>
+      <c r="J56" s="90"/>
+      <c r="L56" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="29">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D52" s="29">
-        <f>C52</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="E52" s="90">
-        <f>D52/$D$57</f>
-        <v>2.2504</v>
-      </c>
-      <c r="F52" s="90">
-        <f>E52*C83</f>
-        <v>44.782959999999996</v>
-      </c>
-      <c r="G52" s="90">
-        <f>F52/$C$84</f>
-        <v>1.0378438006952491</v>
-      </c>
-      <c r="H52" s="90">
-        <f>G52/$G$55</f>
-        <v>0.95965000590366456</v>
-      </c>
-      <c r="I52" s="90">
-        <f>H52</f>
-        <v>0.95965000590366456</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="D53" s="29">
-        <f t="shared" ref="D53" si="0">C53</f>
-        <v>0.01</v>
-      </c>
-      <c r="E53" s="90">
-        <f>D53/$D$57</f>
-        <v>9.700000000000002E-3</v>
-      </c>
-      <c r="F53" s="90">
-        <f>E53*C81</f>
-        <v>1.1649700000000003</v>
-      </c>
-      <c r="G53" s="90">
-        <f>F53/$C$84</f>
-        <v>2.6998146002317504E-2</v>
-      </c>
-      <c r="H53" s="90">
-        <f>G53/$G$55</f>
-        <v>2.4964036932297297E-2</v>
-      </c>
-      <c r="I53" s="90">
-        <f>H53+H54</f>
-        <v>4.0349994096335384E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G54" s="90">
-        <f>F54/$C$84</f>
-        <v>1.6639629200463499E-2</v>
-      </c>
-      <c r="H54" s="90">
-        <f>G54/$G$55</f>
-        <v>1.5385957164038091E-2</v>
-      </c>
-      <c r="I54" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="29">
-        <f>SUM(C52:C53)</f>
-        <v>2.3299999999999996</v>
-      </c>
-      <c r="D55" s="29">
-        <f>SUM(D52:D53)</f>
-        <v>2.3299999999999996</v>
-      </c>
-      <c r="E55" s="90">
-        <f>SUM(E52:E53)</f>
-        <v>2.2601</v>
-      </c>
-      <c r="F55" s="90">
-        <f>SUM(F52:F54)</f>
-        <v>46.665930000000003</v>
-      </c>
-      <c r="G55" s="90">
-        <f>SUM(G52:G54)</f>
-        <v>1.0814815758980301</v>
-      </c>
-      <c r="H55" s="90">
-        <f>SUM(H52:H54)</f>
-        <v>1</v>
-      </c>
-      <c r="I55" s="90">
-        <f>SUM(I52:I54)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57" s="29" t="s">
-        <v>98</v>
-      </c>
       <c r="C57" s="29">
-        <f>D40</f>
-        <v>1</v>
+        <f>C39</f>
+        <v>0.82</v>
       </c>
       <c r="D57" s="90">
         <f>C57+$C$59*C57/SUM($C$57:$C$58)</f>
-        <v>1.0309278350515463</v>
+        <v>0.84536082474226804</v>
       </c>
       <c r="E57" s="90">
-        <f>D57/$D$57</f>
-        <v>1</v>
+        <f>D57*C68</f>
+        <v>36.477319587628863</v>
       </c>
       <c r="F57" s="90">
-        <v>1</v>
+        <f>E57</f>
+        <v>36.477319587628863</v>
       </c>
       <c r="G57" s="90">
-        <v>1</v>
-      </c>
-      <c r="H57" s="90">
-        <f>G57/$G$62</f>
-        <v>0.82400103585241713</v>
-      </c>
-      <c r="I57" s="90">
-        <f>H57</f>
-        <v>0.82400103585241713</v>
-      </c>
-      <c r="L57" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
+        <f>F57/$F$54</f>
+        <v>0.75856925130760644</v>
+      </c>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="B58" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="90">
-        <f>D41</f>
-        <v>0.18292682926829268</v>
+        <v>141</v>
+      </c>
+      <c r="C58" s="29">
+        <f>C40</f>
+        <v>0.15</v>
       </c>
       <c r="D58" s="90">
         <f>C58+$C$59*C58/SUM($C$57:$C$58)</f>
-        <v>0.18858436007040483</v>
+        <v>0.15463917525773196</v>
       </c>
       <c r="E58" s="90">
-        <f>D58/$D$57</f>
-        <v>0.18292682926829271</v>
+        <f>D58*C66</f>
+        <v>6.8041237113402069</v>
       </c>
       <c r="F58" s="90">
-        <f>E58*C82</f>
-        <v>7.9024390243902456</v>
+        <f>E58</f>
+        <v>6.8041237113402069</v>
       </c>
       <c r="G58" s="90">
-        <f>F58/$C$84</f>
-        <v>0.1831387954667496</v>
-      </c>
-      <c r="H58" s="90">
-        <f>G58/$G$62</f>
-        <v>0.15090655716936563</v>
-      </c>
-      <c r="I58" s="90">
-        <f>H58</f>
-        <v>0.15090655716936563</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
+        <f>F58/$F$54</f>
+        <v>0.14149611561004447</v>
+      </c>
+      <c r="H58" s="90"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="B59" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="90">
-        <f>D42</f>
-        <v>3.6585365853658534E-2</v>
+        <v>93</v>
+      </c>
+      <c r="C59" s="29">
+        <f>C41</f>
+        <v>0.03</v>
       </c>
       <c r="D59" s="29">
         <v>0</v>
       </c>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90">
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="90"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="B60" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="90">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="F60" s="41">
         <v>0</v>
       </c>
-      <c r="G59" s="90">
-        <v>0</v>
-      </c>
-      <c r="H59" s="90">
-        <f>G59/$G$62</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="G60" s="90">
-        <f>F60/$C$84</f>
-        <v>3.0451911935110085E-2</v>
-      </c>
-      <c r="H60" s="90">
-        <f>G60/$G$62</f>
-        <v>2.5092406978217293E-2</v>
-      </c>
-      <c r="I60" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="90"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61" s="135" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="136">
+        <f>1-SUM(G57:G58)</f>
+        <v>9.9934633082349067E-2</v>
+      </c>
       <c r="H61" s="90"/>
-      <c r="I61" s="90">
-        <f>H60</f>
-        <v>2.5092406978217293E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12">
+      <c r="I61" s="90"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="B62" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="90">
         <f>SUM(C57:C59)</f>
-        <v>1.2195121951219512</v>
+        <v>1</v>
       </c>
       <c r="D62" s="90">
         <f>SUM(D57:D59)</f>
-        <v>1.2195121951219512</v>
+        <v>1</v>
       </c>
       <c r="E62" s="90">
-        <f>SUM(E57:E59)</f>
-        <v>1.1829268292682926</v>
+        <f>SUM(E57:E61)</f>
+        <v>44.595443298969066</v>
       </c>
       <c r="F62" s="90">
-        <f>SUM(F57:F59)</f>
-        <v>8.9024390243902456</v>
+        <f>SUM(F57:F61)</f>
+        <v>43.281443298969066</v>
       </c>
       <c r="G62" s="90">
-        <f>SUM(G57:G60)</f>
-        <v>1.2135907074018597</v>
-      </c>
-      <c r="H62" s="90">
-        <f>SUM(H57:H60)</f>
+        <f>SUM(G57:G61)</f>
         <v>1</v>
       </c>
-      <c r="I62" s="90">
-        <f>SUM(I57:I61)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="B65" s="89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="29">
+        <v>120.1</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
       <c r="B66" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="C68" s="29" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="C66" s="29">
+        <v>44</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="29">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="29">
+        <v>43.15</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="B70" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="29">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="D70" s="90">
-        <f>C70*C83/$C$84</f>
-        <v>1.0699420625724216</v>
-      </c>
-      <c r="E70" s="37">
-        <f>D70/$D$73</f>
-        <v>0.96009316447272641</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="B71" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="C71" s="29">
-        <v>0.01</v>
-      </c>
-      <c r="D71" s="90">
-        <f>C71*C81/$C$84</f>
-        <v>2.783314020857474E-2</v>
-      </c>
-      <c r="E71" s="37">
-        <f>D71/$D$73</f>
-        <v>2.4975565121550525E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="B72" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="90">
-        <f>0.718/$C$84</f>
-        <v>1.6639629200463499E-2</v>
-      </c>
-      <c r="E72" s="37">
-        <f>D72/$D$73</f>
-        <v>1.4931270405722962E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="B73" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="90">
-        <f>SUM(D70:D72)</f>
-        <v>1.11441483198146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="B74" s="89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="B75" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="29">
-        <v>1</v>
-      </c>
-      <c r="D75" s="29">
-        <v>1</v>
-      </c>
-      <c r="E75" s="37">
-        <f>D75/$D$77</f>
-        <v>0.97044800287873334</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="B76" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" s="90">
-        <f>1.314/$C$84</f>
-        <v>3.0451911935110085E-2</v>
-      </c>
-      <c r="E76" s="37">
-        <f>D76/$D$77</f>
-        <v>2.9551997121266646E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="B77" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="90">
-        <f>SUM(D75:D76)</f>
-        <v>1.0304519119351101</v>
-      </c>
-      <c r="E77" s="29">
-        <f>SUM(E75:E76)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="29">
-        <v>120.1</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="29">
-        <v>43.2</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="29">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
-      <c r="B84" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="29">
-        <v>43.15</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
